--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Module Name</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Passport</t>
+  </si>
+  <si>
+    <t>babel grunt</t>
+  </si>
+  <si>
+    <t>jscs</t>
+  </si>
+  <si>
+    <t>jshint</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,6 +481,21 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Npm modules" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Module Name</t>
   </si>
@@ -55,13 +55,31 @@
   </si>
   <si>
     <t>jshint</t>
+  </si>
+  <si>
+    <t>superagent</t>
+  </si>
+  <si>
+    <t>proxyquire</t>
+  </si>
+  <si>
+    <t>sinon</t>
+  </si>
+  <si>
+    <t>nock</t>
+  </si>
+  <si>
+    <t>classnames</t>
+  </si>
+  <si>
+    <t>jscookie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -230,7 +247,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="61.85546875" customWidth="1"/>
   </cols>
@@ -423,20 +439,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -448,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -456,44 +472,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -503,12 +549,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Npm modules" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gulp file config" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>Module Name</t>
   </si>
@@ -73,13 +73,313 @@
   </si>
   <si>
     <t>jscookie</t>
+  </si>
+  <si>
+    <t>gulp</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>Plugins</t>
+  </si>
+  <si>
+    <t>Gulp approved plugins</t>
+  </si>
+  <si>
+    <t>gulp-add-src</t>
+  </si>
+  <si>
+    <t>gulp-autoprefixer</t>
+  </si>
+  <si>
+    <t>Prefix css</t>
+  </si>
+  <si>
+    <t>gulp-babel</t>
+  </si>
+  <si>
+    <t>Compile ES6</t>
+  </si>
+  <si>
+    <t>gulp-beautify</t>
+  </si>
+  <si>
+    <t>asset beautification</t>
+  </si>
+  <si>
+    <t>gulp-bump</t>
+  </si>
+  <si>
+    <t>Bump npm versions</t>
+  </si>
+  <si>
+    <t>gulp-cache</t>
+  </si>
+  <si>
+    <t>Cache proxy plugin</t>
+  </si>
+  <si>
+    <t>gulp-concat</t>
+  </si>
+  <si>
+    <t>Concatenate files</t>
+  </si>
+  <si>
+    <t>gulp-coverage</t>
+  </si>
+  <si>
+    <t>generate code coverage independent of test runner</t>
+  </si>
+  <si>
+    <t>gulp-csslint</t>
+  </si>
+  <si>
+    <t>CSSLint plugin for gulp</t>
+  </si>
+  <si>
+    <t>gulp-csso</t>
+  </si>
+  <si>
+    <t>minify css</t>
+  </si>
+  <si>
+    <t>gulp-data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generage data object </t>
+  </si>
+  <si>
+    <t>gulp-eslint</t>
+  </si>
+  <si>
+    <t>gulp-flatten</t>
+  </si>
+  <si>
+    <t>remove or replace relative paths</t>
+  </si>
+  <si>
+    <t>gulp-git</t>
+  </si>
+  <si>
+    <t>git plugin for Gulp</t>
+  </si>
+  <si>
+    <t>gulp-htmlmin</t>
+  </si>
+  <si>
+    <t>Minify html</t>
+  </si>
+  <si>
+    <t>gulp-if</t>
+  </si>
+  <si>
+    <t>Run grunt conditionally</t>
+  </si>
+  <si>
+    <t>gulp-ignore</t>
+  </si>
+  <si>
+    <t>Include or exclude gulp files from the stream based on a condition</t>
+  </si>
+  <si>
+    <t>gulp-imagemin</t>
+  </si>
+  <si>
+    <t>Minify PNG, JPEG, GIF and SVG images</t>
+  </si>
+  <si>
+    <t>gulp-inject</t>
+  </si>
+  <si>
+    <t>A javascript, stylesheet and webcomponent injection plugin for Gulp, i.e. inject file references into your index.html</t>
+  </si>
+  <si>
+    <t>gulp-jasmine</t>
+  </si>
+  <si>
+    <t>Run Jasmine tests</t>
+  </si>
+  <si>
+    <t>gulp-jscs</t>
+  </si>
+  <si>
+    <t>Check JavaScript code style with jscs</t>
+  </si>
+  <si>
+    <t>gulp-jsdoc</t>
+  </si>
+  <si>
+    <t>A jsdoc plugin for Gulp</t>
+  </si>
+  <si>
+    <t>gulp-jshint</t>
+  </si>
+  <si>
+    <t>gulp-markdown</t>
+  </si>
+  <si>
+    <t>gulp-minify-css</t>
+  </si>
+  <si>
+    <t>gulp-minify-html</t>
+  </si>
+  <si>
+    <t>minify html</t>
+  </si>
+  <si>
+    <t>gulp-mocha</t>
+  </si>
+  <si>
+    <t>Run mocha tests</t>
+  </si>
+  <si>
+    <t>gulp-newer</t>
+  </si>
+  <si>
+    <t>gulp-open</t>
+  </si>
+  <si>
+    <t>Open files and URLs with gulp</t>
+  </si>
+  <si>
+    <t>gulp-preprocess</t>
+  </si>
+  <si>
+    <t>gulp-react</t>
+  </si>
+  <si>
+    <t>Precompile Facebook React JSX templates into JavaScript</t>
+  </si>
+  <si>
+    <t>gulp-rename</t>
+  </si>
+  <si>
+    <t>Rename files</t>
+  </si>
+  <si>
+    <t>gulp-replace</t>
+  </si>
+  <si>
+    <t>A string replace plugin for gulp</t>
+  </si>
+  <si>
+    <t>gulp-ruby-sass</t>
+  </si>
+  <si>
+    <t>gulp-sass</t>
+  </si>
+  <si>
+    <t>gulp-scss-lint</t>
+  </si>
+  <si>
+    <t>gulp-size</t>
+  </si>
+  <si>
+    <t>gulp-uglify</t>
+  </si>
+  <si>
+    <t>gulp-watch</t>
+  </si>
+  <si>
+    <t>gulp-webpack</t>
+  </si>
+  <si>
+    <t>gulp-json-editor</t>
+  </si>
+  <si>
+    <t>gulp-diff</t>
+  </si>
+  <si>
+    <t>gulp-docco</t>
+  </si>
+  <si>
+    <t>gulp-jscs-stylish</t>
+  </si>
+  <si>
+    <t>Stylish reporter for gulp-jscs</t>
+  </si>
+  <si>
+    <t>gulp-svgmin</t>
+  </si>
+  <si>
+    <t>gulp-file-include</t>
+  </si>
+  <si>
+    <t>gulp-jslint</t>
+  </si>
+  <si>
+    <t>gulp-copy</t>
+  </si>
+  <si>
+    <t>gulp-html-replace</t>
+  </si>
+  <si>
+    <t>gulp-svg-sprite</t>
+  </si>
+  <si>
+    <t>SVG sprites &amp; stacks galore — Gulp plugin wrapping around svg-sprite that reads in a bunch of SVG files, optimizes them and creates SVG sprites and CSS resources in various flavours</t>
+  </si>
+  <si>
+    <t>gulp-imports</t>
+  </si>
+  <si>
+    <t>gulp-jsvalidate</t>
+  </si>
+  <si>
+    <t>gulp-cssnext</t>
+  </si>
+  <si>
+    <t>gulp-jsmin</t>
+  </si>
+  <si>
+    <t>gulp-css-base64</t>
+  </si>
+  <si>
+    <t>Gulp's task for transform all resources found in a CSS into base64-encoded data URI strings</t>
+  </si>
+  <si>
+    <t>Synchronize version, name, description, keywords... in each config file (package.json, bower.json, component.js...).</t>
+  </si>
+  <si>
+    <t>gulp-config-sync</t>
+  </si>
+  <si>
+    <t>gulp-es6-transpiler</t>
+  </si>
+  <si>
+    <t>gulp-image-resize</t>
+  </si>
+  <si>
+    <t>gulp-svg-sprites</t>
+  </si>
+  <si>
+    <t>Create SVG sprites with PNG fallbacks</t>
+  </si>
+  <si>
+    <t>gulp-processhtml</t>
+  </si>
+  <si>
+    <t>Process html files at build time to modify them as you wish</t>
+  </si>
+  <si>
+    <t>Convert and replace image-files within your DOM/HTML to base64-encoded data.</t>
+  </si>
+  <si>
+    <t>gulp-img64</t>
+  </si>
+  <si>
+    <t>gulp-html-prettify</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +390,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,14 +426,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -213,6 +527,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -247,6 +562,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,14 +738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="61.85546875" customWidth="1"/>
   </cols>
@@ -439,20 +755,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -464,7 +780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -472,74 +788,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -549,13 +880,445 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" tooltip="Install" display="https://npmjs.org/package/gulp-htmlmin/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Npm modules" sheetId="2" r:id="rId2"/>
     <sheet name="Gulp file config" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>Module Name</t>
   </si>
@@ -373,6 +374,36 @@
   </si>
   <si>
     <t>gulp-html-prettify</t>
+  </si>
+  <si>
+    <t>http://www.fontsquirrel.com/tools/webfont-generator</t>
+  </si>
+  <si>
+    <t>base64 generator</t>
+  </si>
+  <si>
+    <t>gulp-concat-css</t>
+  </si>
+  <si>
+    <t>html5</t>
+  </si>
+  <si>
+    <t>css3</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>Jquery</t>
+  </si>
+  <si>
+    <t>AngularJs</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>Foundation</t>
   </si>
 </sst>
 </file>
@@ -881,10 +912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C72"/>
+  <dimension ref="B4:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>106</v>
       </c>
@@ -1268,7 +1299,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>109</v>
       </c>
@@ -1276,17 +1307,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>112</v>
       </c>
@@ -1294,7 +1325,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>114</v>
       </c>
@@ -1302,7 +1333,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
@@ -1310,9 +1341,32 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>30180</v>
       </c>
     </row>
   </sheetData>
@@ -1321,4 +1375,57 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>Module Name</t>
   </si>
@@ -404,13 +404,52 @@
   </si>
   <si>
     <t>Foundation</t>
+  </si>
+  <si>
+    <t>https://github.com/postcss/autoprefixer/tree/master/lib/hacks</t>
+  </si>
+  <si>
+    <t>27 hacks from autoprefixer</t>
+  </si>
+  <si>
+    <r>
+      <t>gulp.watch('./js/*', function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <t>     gulp.run('js');</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>Watch example :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +471,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -461,13 +514,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -912,10 +967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L90"/>
+  <dimension ref="B4:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,9 +1419,35 @@
         <v>54</v>
       </c>
     </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L90">
+      <c r="B90" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L92">
         <v>30180</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B93" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1374,6 +1455,7 @@
     <hyperlink ref="B25" r:id="rId1" tooltip="Install" display="https://npmjs.org/package/gulp-htmlmin/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1381,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
   <si>
     <t>Module Name</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>Watch example :</t>
+  </si>
+  <si>
+    <t>gulp-webserver</t>
+  </si>
+  <si>
+    <t>gulp     run-sequence</t>
   </si>
 </sst>
 </file>
@@ -967,10 +973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L93"/>
+  <dimension ref="B4:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,6 +1454,16 @@
     <row r="93" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>Module Name</t>
   </si>
@@ -449,6 +449,18 @@
   </si>
   <si>
     <t>gulp     run-sequence</t>
+  </si>
+  <si>
+    <t>npm dedupe</t>
+  </si>
+  <si>
+    <t>remove duplication in npm modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rimraf </t>
+  </si>
+  <si>
+    <t>to delete folder in node_modules</t>
   </si>
 </sst>
 </file>
@@ -973,10 +985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L100"/>
+  <dimension ref="B4:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,14 +1468,30 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Npm modules" sheetId="2" r:id="rId2"/>
     <sheet name="Gulp file config" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="browsersync" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -383,27 +383,6 @@
   </si>
   <si>
     <t>gulp-concat-css</t>
-  </si>
-  <si>
-    <t>html5</t>
-  </si>
-  <si>
-    <t>css3</t>
-  </si>
-  <si>
-    <t>Javascript</t>
-  </si>
-  <si>
-    <t>Jquery</t>
-  </si>
-  <si>
-    <t>AngularJs</t>
-  </si>
-  <si>
-    <t>Bootstrap</t>
-  </si>
-  <si>
-    <t>Foundation</t>
   </si>
   <si>
     <t>https://github.com/postcss/autoprefixer/tree/master/lib/hacks</t>
@@ -461,6 +440,27 @@
   </si>
   <si>
     <t>to delete folder in node_modules</t>
+  </si>
+  <si>
+    <t>Automate release workflow</t>
+  </si>
+  <si>
+    <t>https://github.com/gulpjs/gulp/tree/master/docs/recipes</t>
+  </si>
+  <si>
+    <t>http://www.jayway.com/2015/03/04/using-react-with-ecmascript-6/</t>
+  </si>
+  <si>
+    <t>Using Reacths with ES6</t>
+  </si>
+  <si>
+    <t>es6 classes</t>
+  </si>
+  <si>
+    <t>http://egorsmirnov.me/</t>
+  </si>
+  <si>
+    <t>http://egorsmirnov.me/2015/05/25/browserify-babelify-and-es6.html</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L104"/>
+  <dimension ref="B4:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,25 +1439,25 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L92">
         <v>30180</v>
@@ -1465,32 +1465,63 @@
     </row>
     <row r="93" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="M109" t="s">
         <v>137</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
         <v>139</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1505,53 +1536,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:B12"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Gulp file config" sheetId="3" r:id="rId3"/>
     <sheet name="browsersync" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="152">
   <si>
     <t>Module Name</t>
   </si>
@@ -462,12 +462,45 @@
   <si>
     <t>http://egorsmirnov.me/2015/05/25/browserify-babelify-and-es6.html</t>
   </si>
+  <si>
+    <t>npm install $package</t>
+  </si>
+  <si>
+    <t>install modules from other directory</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
+    <t>will be installed</t>
+  </si>
+  <si>
+    <t>devDependencies</t>
+  </si>
+  <si>
+    <t>" npm install "</t>
+  </si>
+  <si>
+    <t>" npm install --production "</t>
+  </si>
+  <si>
+    <t>will not be installed</t>
+  </si>
+  <si>
+    <t>"npm install '$package'"  from other directory</t>
+  </si>
+  <si>
+    <t>npm install  $package   --dev " from other directory</t>
+  </si>
+  <si>
+    <t>devDendencies</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -541,6 +574,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -631,7 +665,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -666,7 +699,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -842,14 +874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="61.85546875" customWidth="1"/>
   </cols>
@@ -859,20 +891,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -884,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -892,87 +924,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -984,35 +1016,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:M139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1020,7 +1052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1028,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1036,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -1044,7 +1076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1052,7 +1084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -1060,7 +1092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -1068,7 +1100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1076,7 +1108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1092,12 +1124,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -1105,7 +1137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
         <v>48</v>
       </c>
@@ -1113,7 +1145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1121,7 +1153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
         <v>52</v>
       </c>
@@ -1129,7 +1161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>54</v>
       </c>
@@ -1137,7 +1169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -1145,7 +1177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -1153,7 +1185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
         <v>60</v>
       </c>
@@ -1161,7 +1193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>62</v>
       </c>
@@ -1169,7 +1201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3">
       <c r="B32" t="s">
         <v>64</v>
       </c>
@@ -1177,17 +1209,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>68</v>
       </c>
@@ -1195,7 +1227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>69</v>
       </c>
@@ -1203,7 +1235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>71</v>
       </c>
@@ -1211,12 +1243,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
         <v>74</v>
       </c>
@@ -1224,12 +1256,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" t="s">
         <v>77</v>
       </c>
@@ -1237,7 +1269,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>79</v>
       </c>
@@ -1245,7 +1277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>81</v>
       </c>
@@ -1253,57 +1285,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" t="s">
         <v>93</v>
       </c>
@@ -1311,32 +1343,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" ht="90">
       <c r="B60" t="s">
         <v>100</v>
       </c>
@@ -1344,27 +1376,27 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="B65" t="s">
         <v>106</v>
       </c>
@@ -1372,7 +1404,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4">
       <c r="B66" t="s">
         <v>109</v>
       </c>
@@ -1380,17 +1412,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="B67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="B68" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
         <v>112</v>
       </c>
@@ -1398,7 +1430,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="B70" t="s">
         <v>114</v>
       </c>
@@ -1406,7 +1438,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="B71" t="s">
         <v>117</v>
       </c>
@@ -1414,12 +1446,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>119</v>
       </c>
@@ -1427,17 +1459,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="B79" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12">
       <c r="B84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12">
       <c r="B86" t="s">
         <v>122</v>
       </c>
@@ -1445,17 +1477,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12">
       <c r="B90" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" ht="15.75">
       <c r="B91" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" ht="15.75">
       <c r="B92" s="4" t="s">
         <v>125</v>
       </c>
@@ -1463,22 +1495,22 @@
         <v>30180</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12" ht="15.75">
       <c r="B93" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13">
       <c r="B97" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13">
       <c r="B100" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13">
       <c r="B102" t="s">
         <v>130</v>
       </c>
@@ -1486,7 +1518,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13">
       <c r="B104" s="5" t="s">
         <v>132</v>
       </c>
@@ -1494,7 +1526,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13">
       <c r="C107" t="s">
         <v>134</v>
       </c>
@@ -1502,7 +1534,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13">
       <c r="E109" t="s">
         <v>136</v>
       </c>
@@ -1510,19 +1542,111 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13">
       <c r="E112" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5">
       <c r="E114" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5">
       <c r="E116" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="15.75">
+      <c r="B120" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="15.75">
+      <c r="B126" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1535,14 +1659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="153">
   <si>
     <t>Module Name</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>devDendencies</t>
+  </si>
+  <si>
+    <t>BEM</t>
   </si>
 </sst>
 </file>
@@ -892,10 +895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1009,6 +1012,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1019,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="154">
   <si>
     <t>Module Name</t>
   </si>
@@ -498,12 +498,15 @@
   <si>
     <t>BEM</t>
   </si>
+  <si>
+    <t>React Developer Tools</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +543,13 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -568,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -578,6 +588,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -897,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1025,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:M139"/>
+  <dimension ref="B4:M142"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1655,6 +1666,11 @@
       </c>
       <c r="C139" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="27">
+      <c r="B142" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1687,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -505,8 +505,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,6 +679,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -713,6 +714,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -888,14 +890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="61.85546875" customWidth="1"/>
   </cols>
@@ -905,20 +907,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -930,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -938,92 +940,92 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>152</v>
       </c>
@@ -1035,35 +1037,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1103,7 +1105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -1111,7 +1113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -1119,7 +1121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1127,7 +1129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1143,12 +1145,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -1156,7 +1158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>48</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1172,7 +1174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>52</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>54</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -1196,7 +1198,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>60</v>
       </c>
@@ -1212,7 +1214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>62</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>64</v>
       </c>
@@ -1228,17 +1230,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>68</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>69</v>
       </c>
@@ -1254,7 +1256,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>71</v>
       </c>
@@ -1262,12 +1264,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>74</v>
       </c>
@@ -1275,12 +1277,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>77</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>79</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>81</v>
       </c>
@@ -1304,57 +1306,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>93</v>
       </c>
@@ -1362,32 +1364,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="90">
+    <row r="60" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>100</v>
       </c>
@@ -1395,27 +1397,27 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>106</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>109</v>
       </c>
@@ -1431,17 +1433,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>112</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>114</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>117</v>
       </c>
@@ -1465,12 +1467,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>119</v>
       </c>
@@ -1478,17 +1480,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="2:12">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>122</v>
       </c>
@@ -1496,17 +1498,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="2:12">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="15.75">
+    <row r="91" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="15.75">
+    <row r="92" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>125</v>
       </c>
@@ -1514,22 +1516,22 @@
         <v>30180</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="15.75">
+    <row r="93" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>130</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>132</v>
       </c>
@@ -1545,7 +1547,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>134</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>136</v>
       </c>
@@ -1561,22 +1563,22 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="2:5">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="2:5">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="15.75">
+    <row r="120" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
         <v>141</v>
       </c>
@@ -1584,12 +1586,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="2:5">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="2:5">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>143</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="15.75">
+    <row r="126" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>145</v>
       </c>
@@ -1605,12 +1607,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="2:5">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>143</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>145</v>
       </c>
@@ -1626,12 +1628,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>143</v>
       </c>
@@ -1639,7 +1641,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>145</v>
       </c>
@@ -1647,12 +1649,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>143</v>
       </c>
@@ -1660,7 +1662,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>151</v>
       </c>
@@ -1668,7 +1670,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="2:3" ht="27">
+    <row r="142" spans="2:3" ht="27" x14ac:dyDescent="0.4">
       <c r="B142" s="7" t="s">
         <v>153</v>
       </c>
@@ -1683,14 +1685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
